--- a/Bradley-Terry Spreadsheet NHL.xlsx
+++ b/Bradley-Terry Spreadsheet NHL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="79">
   <si>
     <t>Team 1</t>
   </si>
@@ -163,94 +163,100 @@
     <t>SOS</t>
   </si>
   <si>
-    <t>19-7-3</t>
+    <t>21-7-3</t>
   </si>
   <si>
-    <t>17-8-5</t>
+    <t>17-8-3</t>
   </si>
   <si>
-    <t>16-6-9</t>
+    <t>18-6-10</t>
   </si>
   <si>
-    <t>16-8-3</t>
+    <t>18-8-5</t>
   </si>
   <si>
-    <t>17-7-6</t>
+    <t>16-7-9</t>
   </si>
   <si>
-    <t>13-6-11</t>
+    <t>19-8-7</t>
   </si>
   <si>
-    <t>13-7-9</t>
+    <t>14-7-9</t>
   </si>
   <si>
-    <t>12-7-9</t>
+    <t>16-9-8</t>
   </si>
   <si>
-    <t>14-8-8</t>
+    <t>13-8-13</t>
   </si>
   <si>
-    <t>14-9-8</t>
+    <t>15-8-8</t>
   </si>
   <si>
-    <t>13-10-3</t>
+    <t>18-12-5</t>
   </si>
   <si>
-    <t>16-12-4</t>
+    <t>14-10-4</t>
   </si>
   <si>
-    <t>15-11-3</t>
+    <t>15-11-7</t>
   </si>
   <si>
-    <t>14-10-6</t>
+    <t>13-10-8</t>
   </si>
   <si>
-    <t>13-9-8</t>
+    <t>15-13-5</t>
   </si>
   <si>
-    <t>11-9-12</t>
+    <t>12-12-9</t>
   </si>
   <si>
-    <t>11-11-8</t>
+    <t>12-11-8</t>
   </si>
   <si>
-    <t>12-11-7</t>
+    <t>11-11-13</t>
+  </si>
+  <si>
+    <t>10-13-9</t>
   </si>
   <si>
     <t>10-12-7</t>
   </si>
   <si>
-    <t>12-14-4</t>
+    <t>12-15-6</t>
   </si>
   <si>
-    <t>10-15-6</t>
+    <t>9-12-7</t>
   </si>
   <si>
-    <t>9-13-9</t>
+    <t>11-15-8</t>
   </si>
   <si>
-    <t>8-12-6</t>
+    <t>8-14-8</t>
   </si>
   <si>
-    <t>8-13-7</t>
+    <t>9-15-9</t>
   </si>
   <si>
-    <t>10-17-3</t>
+    <t>8-15-10</t>
   </si>
   <si>
-    <t>7-15-8</t>
+    <t>7-18-4</t>
   </si>
   <si>
-    <t>7-17-4</t>
+    <t>10-19-4</t>
   </si>
   <si>
-    <t>5-15-10</t>
+    <t>7-17-9</t>
   </si>
   <si>
-    <t>6-21-4</t>
+    <t>5-17-10</t>
   </si>
   <si>
-    <t>3-21-5</t>
+    <t>6-23-5</t>
+  </si>
+  <si>
+    <t>3-21-6</t>
   </si>
 </sst>
 </file>
@@ -568,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E511"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C498" sqref="C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7535,6 +7541,563 @@
         <v>3</v>
       </c>
     </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475">
+        <v>6</v>
+      </c>
+      <c r="C475" t="s">
+        <v>27</v>
+      </c>
+      <c r="D475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>22</v>
+      </c>
+      <c r="B476">
+        <v>7</v>
+      </c>
+      <c r="C476" t="s">
+        <v>37</v>
+      </c>
+      <c r="D476">
+        <v>8</v>
+      </c>
+      <c r="E476" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>15</v>
+      </c>
+      <c r="B477">
+        <v>4</v>
+      </c>
+      <c r="C477" t="s">
+        <v>5</v>
+      </c>
+      <c r="D477">
+        <v>5</v>
+      </c>
+      <c r="E477" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>12</v>
+      </c>
+      <c r="B478">
+        <v>2</v>
+      </c>
+      <c r="C478" t="s">
+        <v>9</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>32</v>
+      </c>
+      <c r="B479">
+        <v>4</v>
+      </c>
+      <c r="C479" t="s">
+        <v>19</v>
+      </c>
+      <c r="D479">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>17</v>
+      </c>
+      <c r="B480">
+        <v>3</v>
+      </c>
+      <c r="C480" t="s">
+        <v>26</v>
+      </c>
+      <c r="D480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>33</v>
+      </c>
+      <c r="B481">
+        <v>3</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481">
+        <v>2</v>
+      </c>
+      <c r="E481" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>13</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+      <c r="C482" t="s">
+        <v>35</v>
+      </c>
+      <c r="D482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>28</v>
+      </c>
+      <c r="B483">
+        <v>3</v>
+      </c>
+      <c r="C483" t="s">
+        <v>18</v>
+      </c>
+      <c r="D483">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>15</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484" t="s">
+        <v>21</v>
+      </c>
+      <c r="D484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>28</v>
+      </c>
+      <c r="B485">
+        <v>3</v>
+      </c>
+      <c r="C485" t="s">
+        <v>23</v>
+      </c>
+      <c r="D485">
+        <v>4</v>
+      </c>
+      <c r="E485" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486">
+        <v>3</v>
+      </c>
+      <c r="C486" t="s">
+        <v>26</v>
+      </c>
+      <c r="D486">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>12</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487" t="s">
+        <v>27</v>
+      </c>
+      <c r="D487">
+        <v>2</v>
+      </c>
+      <c r="E487" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>19</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488" t="s">
+        <v>20</v>
+      </c>
+      <c r="D488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>36</v>
+      </c>
+      <c r="B489">
+        <v>6</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>33</v>
+      </c>
+      <c r="B490">
+        <v>2</v>
+      </c>
+      <c r="C490" t="s">
+        <v>37</v>
+      </c>
+      <c r="D490">
+        <v>3</v>
+      </c>
+      <c r="E490" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>18</v>
+      </c>
+      <c r="B491">
+        <v>3</v>
+      </c>
+      <c r="C491" t="s">
+        <v>24</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>13</v>
+      </c>
+      <c r="B492">
+        <v>5</v>
+      </c>
+      <c r="C492" t="s">
+        <v>32</v>
+      </c>
+      <c r="D492">
+        <v>6</v>
+      </c>
+      <c r="E492" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>17</v>
+      </c>
+      <c r="B493">
+        <v>4</v>
+      </c>
+      <c r="C493" t="s">
+        <v>5</v>
+      </c>
+      <c r="D493">
+        <v>3</v>
+      </c>
+      <c r="E493" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>9</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494" t="s">
+        <v>7</v>
+      </c>
+      <c r="D494">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>19</v>
+      </c>
+      <c r="B495">
+        <v>3</v>
+      </c>
+      <c r="C495" t="s">
+        <v>34</v>
+      </c>
+      <c r="D495">
+        <v>4</v>
+      </c>
+      <c r="E495" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>21</v>
+      </c>
+      <c r="B496">
+        <v>7</v>
+      </c>
+      <c r="C496" t="s">
+        <v>23</v>
+      </c>
+      <c r="D496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>15</v>
+      </c>
+      <c r="B497">
+        <v>2</v>
+      </c>
+      <c r="C497" t="s">
+        <v>26</v>
+      </c>
+      <c r="D497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>33</v>
+      </c>
+      <c r="B498">
+        <v>3</v>
+      </c>
+      <c r="C498" t="s">
+        <v>27</v>
+      </c>
+      <c r="D498">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>35</v>
+      </c>
+      <c r="B499">
+        <v>6</v>
+      </c>
+      <c r="C499" t="s">
+        <v>31</v>
+      </c>
+      <c r="D499">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500" t="s">
+        <v>28</v>
+      </c>
+      <c r="D500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>13</v>
+      </c>
+      <c r="B501">
+        <v>2</v>
+      </c>
+      <c r="C501" t="s">
+        <v>20</v>
+      </c>
+      <c r="D501">
+        <v>3</v>
+      </c>
+      <c r="E501" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>12</v>
+      </c>
+      <c r="B502">
+        <v>5</v>
+      </c>
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>30</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503" t="s">
+        <v>16</v>
+      </c>
+      <c r="D503">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>36</v>
+      </c>
+      <c r="B504">
+        <v>5</v>
+      </c>
+      <c r="C504" t="s">
+        <v>10</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505" t="s">
+        <v>11</v>
+      </c>
+      <c r="D505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>34</v>
+      </c>
+      <c r="B506">
+        <v>5</v>
+      </c>
+      <c r="C506" t="s">
+        <v>24</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>5</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507" t="s">
+        <v>17</v>
+      </c>
+      <c r="D507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>37</v>
+      </c>
+      <c r="B508">
+        <v>5</v>
+      </c>
+      <c r="C508" t="s">
+        <v>4</v>
+      </c>
+      <c r="D508">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>8</v>
+      </c>
+      <c r="B509">
+        <v>5</v>
+      </c>
+      <c r="C509" t="s">
+        <v>7</v>
+      </c>
+      <c r="D509">
+        <v>4</v>
+      </c>
+      <c r="E509" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>32</v>
+      </c>
+      <c r="B510">
+        <v>4</v>
+      </c>
+      <c r="C510" t="s">
+        <v>18</v>
+      </c>
+      <c r="D510">
+        <v>3</v>
+      </c>
+      <c r="E510" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>13</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511" t="s">
+        <v>17</v>
+      </c>
+      <c r="D511">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7546,7 +8109,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7555,7 +8118,7 @@
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -7598,7 +8161,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>228.72498957315889</v>
+        <v>241.2454866187808</v>
       </c>
       <c r="D2">
         <f>RANK(F2,F2:F33)</f>
@@ -7608,17 +8171,17 @@
         <v>47</v>
       </c>
       <c r="F2">
-        <v>0.7068965517241379</v>
+        <v>0.72580645161290325</v>
       </c>
       <c r="G2">
-        <v>2.4117647058823528</v>
+        <v>2.6470588235294121</v>
       </c>
       <c r="H2">
         <f>RANK(I2,I2:I33)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I2">
-        <v>94.837190798626864</v>
+        <v>91.13718383376164</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7626,30 +8189,30 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>197.3375150389368</v>
+        <v>204.8865286464669</v>
       </c>
       <c r="D3">
         <f>RANK(F3,F2:F33)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
       </c>
       <c r="F3">
-        <v>0.65</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="G3">
-        <v>1.857142857142857</v>
+        <v>1.9473684210526321</v>
       </c>
       <c r="H3">
         <f>RANK(I3,I2:I33)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>106.2586619440429</v>
+        <v>105.21200119683429</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7660,27 +8223,27 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>192.31391160094671</v>
+        <v>202.9688955878014</v>
       </c>
       <c r="D4">
         <f>RANK(F4,F2:F33)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
       <c r="F4">
-        <v>0.66129032258064513</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="G4">
-        <v>1.9523809523809521</v>
+        <v>2.0909090909090908</v>
       </c>
       <c r="H4">
         <f>RANK(I4,I2:I33)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>98.502247405362922</v>
+        <v>97.072080498513699</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7688,30 +8251,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>191.6525566103428</v>
+        <v>200.26699369310739</v>
       </c>
       <c r="D5">
         <f>RANK(F5,F2:F33)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
       </c>
       <c r="F5">
-        <v>0.64814814814814814</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="G5">
-        <v>1.8421052631578949</v>
+        <v>1.9523809523809521</v>
       </c>
       <c r="H5">
         <f>RANK(I5,I2:I33)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>104.0399593027575</v>
+        <v>102.5757772574453</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7719,30 +8282,30 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>187.2961763501057</v>
+        <v>199.27769218561679</v>
       </c>
       <c r="D6">
         <f>RANK(F6,F2:F33)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6">
-        <v>0.66666666666666663</v>
+        <v>0.640625</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1.7826086956521741</v>
       </c>
       <c r="H6">
         <f>RANK(I6,I2:I33)</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>93.648088175052834</v>
+        <v>111.78992488461429</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7750,30 +8313,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>171.8844914143074</v>
+        <v>195.8243587943829</v>
       </c>
       <c r="D7">
         <f>RANK(F7,F2:F33)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
       </c>
       <c r="F7">
-        <v>0.6166666666666667</v>
+        <v>0.66176470588235292</v>
       </c>
       <c r="G7">
-        <v>1.6086956521739131</v>
+        <v>1.956521739130435</v>
       </c>
       <c r="H7">
         <f>RANK(I7,I2:I33)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>106.84711628456949</v>
+        <v>100.0880056060179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7781,10 +8344,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>165.55106231592089</v>
+        <v>161.6244798300246</v>
       </c>
       <c r="D8">
         <f>RANK(F8,F2:F33)</f>
@@ -7794,17 +8357,17 @@
         <v>53</v>
       </c>
       <c r="F8">
-        <v>0.60344827586206895</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="G8">
-        <v>1.5217391304347829</v>
+        <v>1.6086956521739131</v>
       </c>
       <c r="H8">
         <f>RANK(I8,I2:I33)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>108.79069809331941</v>
+        <v>100.4692712456909</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7812,10 +8375,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>151.21645766687371</v>
+        <v>152.51807709023299</v>
       </c>
       <c r="D9">
         <f>RANK(F9,F2:F33)</f>
@@ -7825,17 +8388,17 @@
         <v>54</v>
       </c>
       <c r="F9">
-        <v>0.5892857142857143</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="G9">
-        <v>1.4347826086956521</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="H9">
         <f>RANK(I9,I2:I33)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>105.39328867691199</v>
+        <v>99.136750108651441</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7843,30 +8406,30 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>141.57776620090789</v>
+        <v>149.40796787875561</v>
       </c>
       <c r="D10">
         <f>RANK(F10,F2:F33)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>0.57352941176470584</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="H10">
         <f>RANK(I10,I2:I33)</f>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>94.385177467271902</v>
+        <v>111.0982325252285</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7874,30 +8437,30 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>136.3925858830209</v>
+        <v>148.75456891289741</v>
       </c>
       <c r="D11">
         <f>RANK(F11,F2:F33)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
       </c>
       <c r="F11">
-        <v>0.58064516129032262</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="G11">
-        <v>1.384615384615385</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="H11">
         <f>RANK(I11,I2:I33)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>98.505756471070626</v>
+        <v>93.950254050251019</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7905,30 +8468,30 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>127.641974195152</v>
+        <v>138.67503320626139</v>
       </c>
       <c r="D12">
         <f>RANK(F12,F2:F33)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
       </c>
       <c r="F12">
-        <v>0.55769230769230771</v>
+        <v>0.58571428571428574</v>
       </c>
       <c r="G12">
-        <v>1.2608695652173909</v>
+        <v>1.413793103448276</v>
       </c>
       <c r="H12">
         <f>RANK(I12,I2:I33)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I12">
-        <v>101.23328987891369</v>
+        <v>98.087218609306888</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7936,30 +8499,30 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>126.3178106826154</v>
+        <v>130.15456513972859</v>
       </c>
       <c r="D13">
         <f>RANK(F13,F2:F33)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
       </c>
       <c r="F13">
-        <v>0.5625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G13">
-        <v>1.285714285714286</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H13">
         <f>RANK(I13,I2:I33)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>98.247186086478649</v>
+        <v>97.615923854796421</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7967,30 +8530,30 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>124.6154614701572</v>
+        <v>120.52568465975649</v>
       </c>
       <c r="D14">
         <f>RANK(F14,F2:F33)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
       </c>
       <c r="F14">
-        <v>0.56896551724137934</v>
+        <v>0.56060606060606055</v>
       </c>
       <c r="G14">
-        <v>1.32</v>
+        <v>1.2758620689655169</v>
       </c>
       <c r="H14">
         <f>RANK(I14,I2:I33)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14">
-        <v>94.405652628906935</v>
+        <v>94.466077165755053</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7998,30 +8561,30 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>123.13869890669289</v>
+        <v>113.917369134387</v>
       </c>
       <c r="D15">
         <f>RANK(F15,F2:F33)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
       </c>
       <c r="F15">
-        <v>0.56666666666666665</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="G15">
-        <v>1.3076923076923079</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="H15">
         <f>RANK(I15,I2:I33)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15">
-        <v>94.164887399235724</v>
+        <v>93.814303993024566</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -8029,30 +8592,30 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>122.1062469936625</v>
+        <v>107.5561141967239</v>
       </c>
       <c r="D16">
         <f>RANK(F16,F2:F33)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
       </c>
       <c r="F16">
-        <v>0.56666666666666665</v>
+        <v>0.53030303030303028</v>
       </c>
       <c r="G16">
-        <v>1.3076923076923079</v>
+        <v>1.129032258064516</v>
       </c>
       <c r="H16">
         <f>RANK(I16,I2:I33)</f>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I16">
-        <v>93.375365348094874</v>
+        <v>95.263986859955423</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -8060,30 +8623,30 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>110.7466322563314</v>
+        <v>107.0091443656296</v>
       </c>
       <c r="D17">
         <f>RANK(F17,F2:F33)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
       </c>
       <c r="F17">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.1333333333333331</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <f>RANK(I17,I2:I33)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>97.717616696763017</v>
+        <v>107.0091443656296</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -8091,30 +8654,30 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>106.9347968342793</v>
+        <v>104.48778372142181</v>
       </c>
       <c r="D18">
         <f>RANK(F18,F2:F33)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>1.0666666666666671</v>
       </c>
       <c r="H18">
         <f>RANK(I18,I2:I33)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I18">
-        <v>106.9347968342793</v>
+        <v>97.95729723883295</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8122,10 +8685,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>105.169489750232</v>
+        <v>100.05048404079589</v>
       </c>
       <c r="D19">
         <f>RANK(F19,F2:F33)</f>
@@ -8135,17 +8698,17 @@
         <v>64</v>
       </c>
       <c r="F19">
-        <v>0.51666666666666672</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.068965517241379</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>RANK(I19,I2:I33)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19">
-        <v>98.384361379249285</v>
+        <v>100.05048404079589</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -8156,27 +8719,27 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>92.547281033701026</v>
+        <v>86.774476169586862</v>
       </c>
       <c r="D20">
         <f>RANK(F20,F2:F33)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
       </c>
       <c r="F20">
-        <v>0.46551724137931028</v>
+        <v>0.453125</v>
       </c>
       <c r="G20">
-        <v>0.87096774193548387</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="H20">
         <f>RANK(I20,I2:I33)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>106.2579893349901</v>
+        <v>104.7278160667428</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -8184,10 +8747,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>85.192176555599985</v>
+        <v>85.456549886294738</v>
       </c>
       <c r="D21">
         <f>RANK(F21,F2:F33)</f>
@@ -8197,17 +8760,17 @@
         <v>66</v>
       </c>
       <c r="F21">
-        <v>0.46666666666666667</v>
+        <v>0.46551724137931028</v>
       </c>
       <c r="G21">
-        <v>0.875</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="H21">
         <f>RANK(I21,I2:I33)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I21">
-        <v>97.362487492114269</v>
+        <v>98.116779499079144</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -8215,30 +8778,30 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>84.806156911335734</v>
+        <v>79.369232351837155</v>
       </c>
       <c r="D22">
         <f>RANK(F22,F2:F33)</f>
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>0.46551724137931028</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G22">
-        <v>0.87096774193548387</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H22">
         <f>RANK(I22,I2:I33)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I22">
-        <v>97.370032009311402</v>
+        <v>95.243078822204581</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -8246,30 +8809,30 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>70.878851084129565</v>
+        <v>77.028229853594354</v>
       </c>
       <c r="D23">
         <f>RANK(F23,F2:F33)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23">
-        <v>0.41935483870967738</v>
+        <v>0.44642857142857151</v>
       </c>
       <c r="G23">
-        <v>0.72222222222222221</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="H23">
         <f>RANK(I23,I2:I33)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>98.139947654948628</v>
+        <v>95.515005018457003</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -8277,30 +8840,30 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>70.455485820968121</v>
+        <v>74.60930289571624</v>
       </c>
       <c r="D24">
         <f>RANK(F24,F2:F33)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24">
-        <v>0.43548387096774188</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="G24">
-        <v>0.77142857142857146</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="H24">
         <f>RANK(I24,I2:I33)</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I24">
-        <v>91.331185323477186</v>
+        <v>94.505117001240563</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -8308,30 +8871,30 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>70.040388604413792</v>
+        <v>66.048233633758173</v>
       </c>
       <c r="D25">
         <f>RANK(F25,F2:F33)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F25">
-        <v>0.42307692307692307</v>
+        <v>0.4</v>
       </c>
       <c r="G25">
-        <v>0.73333333333333328</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H25">
         <f>RANK(I25,I2:I33)</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <v>95.509620824200638</v>
+        <v>99.072350450637259</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -8339,30 +8902,30 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>66.601097862788748</v>
+        <v>65.883952147435622</v>
       </c>
       <c r="D26">
         <f>RANK(F26,F2:F33)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26">
-        <v>0.4107142857142857</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="G26">
-        <v>0.69696969696969702</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="H26">
         <f>RANK(I26,I2:I33)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I26">
-        <v>95.558096933566461</v>
+        <v>95.165708657407009</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -8370,30 +8933,30 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>60.14137389072156</v>
+        <v>65.864856529590767</v>
       </c>
       <c r="D27">
         <f>RANK(F27,F2:F33)</f>
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27">
-        <v>0.38333333333333341</v>
+        <v>0.39393939393939392</v>
       </c>
       <c r="G27">
-        <v>0.6216216216216216</v>
+        <v>0.65</v>
       </c>
       <c r="H27">
         <f>RANK(I27,I2:I33)</f>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>96.749166693769467</v>
+        <v>101.3305485070627</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -8401,30 +8964,30 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>59.114038005977903</v>
+        <v>55.08771138279063</v>
       </c>
       <c r="D28">
         <f>RANK(F28,F2:F33)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28">
-        <v>0.36666666666666659</v>
+        <v>0.31034482758620691</v>
       </c>
       <c r="G28">
-        <v>0.57894736842105265</v>
+        <v>0.45</v>
       </c>
       <c r="H28">
         <f>RANK(I28,I2:I33)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>102.1060656466891</v>
+        <v>122.41713640620139</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -8432,30 +8995,30 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>57.773782727882043</v>
+        <v>53.927175658940058</v>
       </c>
       <c r="D29">
         <f>RANK(F29,F2:F33)</f>
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29">
-        <v>0.36666666666666659</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G29">
-        <v>0.57894736842105265</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H29">
         <f>RANK(I29,I2:I33)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I29">
-        <v>99.7910792572508</v>
+        <v>94.372557403145109</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8463,30 +9026,30 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>57.003048318654429</v>
+        <v>51.812665619896677</v>
       </c>
       <c r="D30">
         <f>RANK(F30,F2:F33)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F30">
-        <v>0.32142857142857151</v>
+        <v>0.34848484848484851</v>
       </c>
       <c r="G30">
-        <v>0.47368421052631582</v>
+        <v>0.53488372093023251</v>
       </c>
       <c r="H30">
         <f>RANK(I30,I2:I33)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I30">
-        <v>120.3397686727149</v>
+        <v>96.86715746328511</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -8497,27 +9060,27 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>52.123976523182201</v>
+        <v>48.907738734320688</v>
       </c>
       <c r="D31">
         <f>RANK(F31,F2:F33)</f>
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="H31">
         <f>RANK(I31,I2:I33)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>104.2479530463644</v>
+        <v>107.5970252155055</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -8528,27 +9091,27 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>36.829483267092222</v>
+        <v>36.367570599858318</v>
       </c>
       <c r="D32">
         <f>RANK(F32,F2:F33)</f>
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32">
-        <v>0.25806451612903231</v>
+        <v>0.25</v>
       </c>
       <c r="G32">
-        <v>0.34782608695652167</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H32">
         <f>RANK(I32,I2:I33)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>105.88476439289011</v>
+        <v>109.102711799575</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -8559,27 +9122,27 @@
         <v>22</v>
       </c>
       <c r="C33">
-        <v>24.10936073602695</v>
+        <v>25.011074251827822</v>
       </c>
       <c r="D33">
         <f>RANK(F33,F2:F33)</f>
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33">
-        <v>0.18965517241379309</v>
+        <v>0.2</v>
       </c>
       <c r="G33">
-        <v>0.23404255319148939</v>
+        <v>0.25</v>
       </c>
       <c r="H33">
         <f>RANK(I33,I2:I33)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I33">
-        <v>103.0127231448424</v>
+        <v>100.0442970073113</v>
       </c>
     </row>
   </sheetData>
